--- a/Tos.FoodProcs.Web/templates/nonyuYoteiListSakusei_kbn_nyuko_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/nonyuYoteiListSakusei_kbn_nyuko_vi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPLite-rb_ZZS@24005_1\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\1.FP_Lite_Ver_2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D44D8C7-2229-4587-BFC9-745B97A5BE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B0CFDB-9910-4564-9A87-B14D933F378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1590" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Item group</t>
     <phoneticPr fontId="2"/>
@@ -54,43 +54,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Delivery date　　　　　　　　　：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Item group　　   　　　　　　　：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Condition of quality 　　　　　：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Output date　　　　　　　　　　：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Output person　　　　　　　　　：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Purchase List</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Item type    　　　　　　　　　：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Vendor1(Logistics) 　　　　　  ：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Vendor code　　　　　　　　　  ：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Vendor name　　　　　          ：</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -152,6 +116,34 @@
   <si>
     <t>Delivery
 number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Delivery date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Vendor code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Condition of quality</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Item type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Vendor name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Output date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Output person</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -159,6 +151,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="@* \:"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -422,13 +417,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +490,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +808,7 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="8" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,7 +834,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -845,63 +859,70 @@
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="19"/>
       <c r="D2" s="3"/>
       <c r="J2" s="10"/>
       <c r="M2" s="10"/>
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="19"/>
       <c r="D3" s="3"/>
       <c r="J3" s="10"/>
       <c r="M3" s="10"/>
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19"/>
       <c r="D4" s="3"/>
       <c r="J4" s="10"/>
       <c r="M4" s="10"/>
       <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="19"/>
       <c r="D5" s="3"/>
       <c r="J5" s="10"/>
       <c r="M5" s="10"/>
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19"/>
       <c r="D6" s="3"/>
       <c r="J6" s="10"/>
       <c r="M6" s="10"/>
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="19"/>
       <c r="D7" s="3"/>
       <c r="J7" s="10"/>
       <c r="M7" s="10"/>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="19"/>
       <c r="D8" s="3"/>
       <c r="J8" s="10"/>
       <c r="M8" s="10"/>
@@ -914,18 +935,20 @@
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="19"/>
       <c r="D10" s="3"/>
       <c r="J10" s="10"/>
       <c r="M10" s="10"/>
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="19"/>
       <c r="D11" s="3"/>
       <c r="J11" s="10"/>
       <c r="M11" s="10"/>
@@ -957,22 +980,22 @@
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>1</v>
@@ -981,25 +1004,25 @@
         <v>2</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>6</v>
@@ -1008,19 +1031,30 @@
         <v>3</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
